--- a/25-2_Horyeong/Assets/Resources/Chapter1.xlsx
+++ b/25-2_Horyeong/Assets/Resources/Chapter1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEO\Documents\GitHub\25-2_Horyeong_2\25-2_Horyeong\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45958910-4412-48DE-8406-19EA5292CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C756B-0F2F-483E-9D71-D3A1FDB42108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -512,6 +512,10 @@
   </si>
   <si>
     <t>SelectTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeImage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,15 +927,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G21" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,8 +960,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -973,8 +980,11 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1024,8 +1040,11 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1041,8 +1060,11 @@
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1067,8 +1092,11 @@
         <v>32</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1084,8 +1112,11 @@
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1101,8 +1132,11 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1118,8 +1152,11 @@
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1135,8 +1172,11 @@
       <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1152,8 +1192,11 @@
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1163,8 +1206,11 @@
       <c r="H14" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1183,8 +1229,11 @@
       <c r="H15" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1209,8 +1258,11 @@
       <c r="H16" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1219,6 +1271,9 @@
       </c>
       <c r="H17" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
